--- a/RPA-TWs/Termworks/TW7/Practice/Book1.xlsx
+++ b/RPA-TWs/Termworks/TW7/Practice/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Venki\Ed\UG\3rd Year\SEM-6\RPA-TWs\Termworks\TW7\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FB4FA-4CDA-480B-AA4D-C0378511B82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EEEDF-6FF9-414D-A140-CC4B311BEAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24456" yWindow="1032" windowWidth="21624" windowHeight="11304" activeTab="1" xr2:uid="{B0A71947-4CB2-4684-85D1-1ABDCF6B097B}"/>
+    <workbookView xWindow="24456" yWindow="1032" windowWidth="21624" windowHeight="11304" activeTab="2" xr2:uid="{B0A71947-4CB2-4684-85D1-1ABDCF6B097B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -756,6 +757,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D86455-3277-4884-8276-E92EF217E4C3}">
   <dimension ref="A1:G13"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBB9E32-1F21-4B4E-AE87-C85D2E7D4DE1}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128DA918-460A-4972-A7BB-5B88A0AFE92C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
